--- a/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70C1_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18131</v>
+        <v>18380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49041</v>
+        <v>47649</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3018022148544047</v>
+        <v>0.3018022148544046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.172972044721745</v>
+        <v>0.1753459008262969</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.467856402559611</v>
+        <v>0.4545729989250926</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -762,19 +762,19 @@
         <v>30500</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19706</v>
+        <v>18942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44407</v>
+        <v>43970</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3324500695978453</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2147970416508086</v>
+        <v>0.2064719462056602</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4840409441452216</v>
+        <v>0.4792787426277147</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>32</v>
@@ -783,19 +783,19 @@
         <v>62135</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44261</v>
+        <v>45772</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82717</v>
+        <v>81854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3161065985993827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2251745982801639</v>
+        <v>0.2328621336947104</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4208165398648258</v>
+        <v>0.4164248396730664</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>29076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16210</v>
+        <v>16200</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46408</v>
+        <v>45036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2773840578771801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1546438198191032</v>
+        <v>0.1545492623709155</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4427355770023605</v>
+        <v>0.4296467447522325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>11042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5277</v>
+        <v>5571</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21990</v>
+        <v>20538</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1203613600157552</v>
+        <v>0.1203613600157553</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05751393396621336</v>
+        <v>0.06072592875630941</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2396959354775718</v>
+        <v>0.2238616494434988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -854,19 +854,19 @@
         <v>40118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25626</v>
+        <v>26487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58363</v>
+        <v>60055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2040962879603547</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1303689682582173</v>
+        <v>0.1347484591093587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2969176018972483</v>
+        <v>0.3055246102344157</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>8627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2334</v>
+        <v>2880</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21653</v>
+        <v>23553</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.08230123684202995</v>
+        <v>0.08230123684202993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02226750371077545</v>
+        <v>0.02747225984407225</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2065700400474682</v>
+        <v>0.2246937789752477</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -904,19 +904,19 @@
         <v>15935</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8175</v>
+        <v>7684</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27551</v>
+        <v>29168</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1736915406038696</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08910260530279232</v>
+        <v>0.08375569583192806</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3003015198091936</v>
+        <v>0.3179271654532945</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>13</v>
@@ -925,19 +925,19 @@
         <v>24562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13374</v>
+        <v>14244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40366</v>
+        <v>42729</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1249561628237336</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06803684898111464</v>
+        <v>0.07246719678770612</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2053604812366305</v>
+        <v>0.2173797359255325</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>12383</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4343</v>
+        <v>4771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26697</v>
+        <v>29257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1181349212799226</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04143567865156962</v>
+        <v>0.04551519317296868</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2546875853632816</v>
+        <v>0.2791152172263249</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -975,19 +975,19 @@
         <v>15559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7661</v>
+        <v>7795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26420</v>
+        <v>26166</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.169589721176517</v>
+        <v>0.1695897211765171</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08349961616326389</v>
+        <v>0.08496862097561651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2879731727402391</v>
+        <v>0.2852090676247068</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -996,19 +996,19 @@
         <v>27942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16120</v>
+        <v>16261</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44634</v>
+        <v>45487</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1421506055554907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08201076821232367</v>
+        <v>0.08272570116159128</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2270705622369889</v>
+        <v>0.2314115106604181</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>19683</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9204</v>
+        <v>9279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>35188</v>
+        <v>35078</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1877808882400545</v>
+        <v>0.1877808882400544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08780930383362345</v>
+        <v>0.08851766804879234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3356998531569879</v>
+        <v>0.3346471240571161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1046,19 +1046,19 @@
         <v>14154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6753</v>
+        <v>6975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24345</v>
+        <v>25234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1542831275484264</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07361163966525973</v>
+        <v>0.07603214624962414</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2653615143034843</v>
+        <v>0.2750525947693849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>17</v>
@@ -1067,19 +1067,19 @@
         <v>33838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20268</v>
+        <v>19881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50091</v>
+        <v>51216</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1721463576165679</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1031124927502542</v>
+        <v>0.1011442716483607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2548319522335383</v>
+        <v>0.2605559823878471</v>
       </c>
     </row>
     <row r="9">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12753</v>
+        <v>11775</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.03259668090640828</v>
+        <v>0.03259668090640827</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1216652049390296</v>
+        <v>0.1123346735679667</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1117,19 +1117,19 @@
         <v>4553</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12447</v>
+        <v>13020</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04962418105758643</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01053544586615045</v>
+        <v>0.01030247719818072</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1356715654606925</v>
+        <v>0.1419167582466511</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1138,19 +1138,19 @@
         <v>7969</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2857</v>
+        <v>2740</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17949</v>
+        <v>16984</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04054398744447039</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01453646894690618</v>
+        <v>0.01393722758624293</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09131387231704084</v>
+        <v>0.08640276376288097</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>117226</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92988</v>
+        <v>94878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141940</v>
+        <v>142907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2960847208801511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2348661963874816</v>
+        <v>0.2396405506757706</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3585068833272814</v>
+        <v>0.3609495292150667</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -1263,19 +1263,19 @@
         <v>100981</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82735</v>
+        <v>83522</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118796</v>
+        <v>117328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3174149347990861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2600610348202763</v>
+        <v>0.2625342354014802</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3734130082881977</v>
+        <v>0.3687997625171804</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>163</v>
@@ -1284,19 +1284,19 @@
         <v>218207</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>189625</v>
+        <v>188213</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248943</v>
+        <v>249665</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.305588052007561</v>
+        <v>0.3055880520075609</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.265560823952507</v>
+        <v>0.2635830885803533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3486320244299792</v>
+        <v>0.3496438172810939</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>65473</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47446</v>
+        <v>48187</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84887</v>
+        <v>84155</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1653686681348064</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1198364177031561</v>
+        <v>0.1217095986098136</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2144044274252916</v>
+        <v>0.2125556780691947</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>61</v>
@@ -1334,19 +1334,19 @@
         <v>61463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48550</v>
+        <v>47710</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78682</v>
+        <v>77014</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1931962289852867</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.152608342852653</v>
+        <v>0.1499685911587624</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2473232332465375</v>
+        <v>0.2420782343065571</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>106</v>
@@ -1355,19 +1355,19 @@
         <v>126935</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104174</v>
+        <v>106059</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151495</v>
+        <v>151377</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1777667868895133</v>
+        <v>0.1777667868895134</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1458911296774701</v>
+        <v>0.1485303286291884</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2121619023888163</v>
+        <v>0.2119965745692015</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>44426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30753</v>
+        <v>30390</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60286</v>
+        <v>62636</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1122102442884667</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07767460650608513</v>
+        <v>0.07675783547498004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1522674628842565</v>
+        <v>0.1582043017029292</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1405,19 +1405,19 @@
         <v>31665</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22795</v>
+        <v>22025</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42731</v>
+        <v>43653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09953280134851286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07165034630560169</v>
+        <v>0.06923145333109323</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1343163104115791</v>
+        <v>0.1372134125237392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -1426,19 +1426,19 @@
         <v>76091</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57295</v>
+        <v>59335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95468</v>
+        <v>95531</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1065620150412075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08023819978470344</v>
+        <v>0.0830960337088581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.133698149500184</v>
+        <v>0.1337863345187464</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>75383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56606</v>
+        <v>56782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>100017</v>
+        <v>100776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1903993229375568</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1429727155250371</v>
+        <v>0.1434183646105166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2526181308101134</v>
+        <v>0.254536472380086</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -1476,19 +1476,19 @@
         <v>49229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35726</v>
+        <v>36735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62848</v>
+        <v>63086</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.154743257106836</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1122966014988073</v>
+        <v>0.1154702420472606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1975499858892925</v>
+        <v>0.1982974189084075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -1497,19 +1497,19 @@
         <v>124612</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101594</v>
+        <v>101565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>150432</v>
+        <v>150475</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1745133406601236</v>
+        <v>0.1745133406601235</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1422770723101784</v>
+        <v>0.1422363437321372</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.210672480312584</v>
+        <v>0.2107324308586499</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>68922</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50045</v>
+        <v>50290</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>92459</v>
+        <v>91178</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1740793881815881</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1264028190850411</v>
+        <v>0.1270204016915944</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2335296576604139</v>
+        <v>0.2302948596309481</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>47</v>
@@ -1547,19 +1547,19 @@
         <v>52533</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40667</v>
+        <v>40733</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69294</v>
+        <v>68672</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1651269946467105</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1278298081001436</v>
+        <v>0.1280351251298184</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2178122807850781</v>
+        <v>0.215858904256603</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>87</v>
@@ -1568,19 +1568,19 @@
         <v>121454</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>98229</v>
+        <v>98061</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>146412</v>
+        <v>147891</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1700907943274355</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1375651075090325</v>
+        <v>0.1373301331616665</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2050427233795694</v>
+        <v>0.2071140521643984</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>24491</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14011</v>
+        <v>12314</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39862</v>
+        <v>38806</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06185765557743082</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03538936052603134</v>
+        <v>0.03110118938395203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1006830773761852</v>
+        <v>0.09801465760447248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1618,19 +1618,19 @@
         <v>22265</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14785</v>
+        <v>14277</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32447</v>
+        <v>33070</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06998578311356785</v>
+        <v>0.06998578311356783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04647283866820611</v>
+        <v>0.04487825566815556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.101991822545933</v>
+        <v>0.1039491909141821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1639,19 +1639,19 @@
         <v>46756</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33376</v>
+        <v>33471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>66054</v>
+        <v>65384</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06547901107415921</v>
+        <v>0.0654790110741592</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04674137394052561</v>
+        <v>0.04687466345300196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09250515970439072</v>
+        <v>0.09156705876897774</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>170729</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>148296</v>
+        <v>147435</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>197389</v>
+        <v>194008</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3202982857734832</v>
+        <v>0.3202982857734833</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2782132838896388</v>
+        <v>0.2765986736709436</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3703141026498501</v>
+        <v>0.3639727960381309</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>136</v>
@@ -1764,19 +1764,19 @@
         <v>96323</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84205</v>
+        <v>82703</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>110687</v>
+        <v>112689</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2427003608683526</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2121663174831289</v>
+        <v>0.2083814698160175</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2788924097714875</v>
+        <v>0.2839355368647036</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>282</v>
@@ -1785,19 +1785,19 @@
         <v>267052</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>238868</v>
+        <v>238684</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>295148</v>
+        <v>297101</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2871799219857024</v>
+        <v>0.2871799219857023</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2568714900838308</v>
+        <v>0.2566745275678598</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3173933807147809</v>
+        <v>0.3194944699622712</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>83053</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68281</v>
+        <v>66439</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>102115</v>
+        <v>100793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.155812069922879</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1281001885472101</v>
+        <v>0.1246431007756681</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1915754361415186</v>
+        <v>0.1890944383838949</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -1835,19 +1835,19 @@
         <v>69552</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56602</v>
+        <v>56773</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81308</v>
+        <v>81946</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1752471320371931</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1426179982193103</v>
+        <v>0.1430476716445405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2048671945037543</v>
+        <v>0.2064759084214102</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>186</v>
@@ -1856,19 +1856,19 @@
         <v>152605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133465</v>
+        <v>132854</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>177307</v>
+        <v>175198</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1641068465954111</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1435249548604479</v>
+        <v>0.1428673645473276</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1906704395896257</v>
+        <v>0.1884028820420076</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>77607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61623</v>
+        <v>61373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96917</v>
+        <v>96200</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1455953078875778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1156087939552097</v>
+        <v>0.1151391634062584</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.181821913746455</v>
+        <v>0.1804781988076781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1906,19 +1906,19 @@
         <v>44059</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34046</v>
+        <v>34042</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55320</v>
+        <v>53579</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1110139985803858</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08578286438117055</v>
+        <v>0.08577352448225078</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1393859320901972</v>
+        <v>0.1349990216889603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -1927,19 +1927,19 @@
         <v>121666</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103496</v>
+        <v>103283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144194</v>
+        <v>144232</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1308361969539601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1112968012532961</v>
+        <v>0.1110679029917628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1550621634189192</v>
+        <v>0.1551025730411941</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>99528</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>82645</v>
+        <v>82156</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>121199</v>
+        <v>119149</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1867203417703385</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1550477411814956</v>
+        <v>0.1541294475786015</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2273779408658259</v>
+        <v>0.2235323079851588</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>87</v>
@@ -1977,19 +1977,19 @@
         <v>65886</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>55127</v>
+        <v>54136</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>80297</v>
+        <v>79756</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1660088982271776</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1389016780099583</v>
+        <v>0.1364041070337441</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2023211770379963</v>
+        <v>0.2009557646729675</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>172</v>
@@ -1998,19 +1998,19 @@
         <v>165413</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>143956</v>
+        <v>141685</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>191301</v>
+        <v>187647</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1778808125861356</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1548060168698608</v>
+        <v>0.152363767179465</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2057194070771682</v>
+        <v>0.2017902299083819</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>68226</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53193</v>
+        <v>53534</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88196</v>
+        <v>86629</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1279966398052699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09979304453017332</v>
+        <v>0.1004328215806485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1654620340840537</v>
+        <v>0.1625223308608674</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -2048,19 +2048,19 @@
         <v>76830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63919</v>
+        <v>62860</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90239</v>
+        <v>90206</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1935837649533615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.161052223516947</v>
+        <v>0.1583859627725016</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2273701203002294</v>
+        <v>0.2272861945877525</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>155</v>
@@ -2069,19 +2069,19 @@
         <v>145056</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>125214</v>
+        <v>124024</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166897</v>
+        <v>167623</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1559888609001615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1346520116320228</v>
+        <v>0.1333716333010354</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1794767786378287</v>
+        <v>0.180257203184215</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>33889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23761</v>
+        <v>22937</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46127</v>
+        <v>48001</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06357735484045134</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04457804282185265</v>
+        <v>0.04303171615825947</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08653667609125029</v>
+        <v>0.09005395469650694</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>55</v>
@@ -2119,19 +2119,19 @@
         <v>44231</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34107</v>
+        <v>34651</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56488</v>
+        <v>57954</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1114458453335294</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08593654704180513</v>
+        <v>0.08730781466659258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1423293532420839</v>
+        <v>0.1460236629309057</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>86</v>
@@ -2140,19 +2140,19 @@
         <v>78119</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>63482</v>
+        <v>64713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>96393</v>
+        <v>97740</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.08400736097862935</v>
+        <v>0.08400736097862933</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06826658129947895</v>
+        <v>0.06959047296728593</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1036583607827647</v>
+        <v>0.1051066022741016</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>180661</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157999</v>
+        <v>156864</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>203649</v>
+        <v>206055</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3303804556448698</v>
+        <v>0.3303804556448697</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.288937476858531</v>
+        <v>0.2868634966649716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3724201097339839</v>
+        <v>0.3768209270796873</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -2265,19 +2265,19 @@
         <v>124082</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>107677</v>
+        <v>109017</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>139215</v>
+        <v>140030</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2723593772867296</v>
+        <v>0.2723593772867295</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2363508476461194</v>
+        <v>0.2392925544035634</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.305575742670782</v>
+        <v>0.3073649768014547</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>366</v>
@@ -2286,19 +2286,19 @@
         <v>304743</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>277956</v>
+        <v>279233</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>333903</v>
+        <v>332809</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3040106025253682</v>
+        <v>0.3040106025253681</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2772881149213695</v>
+        <v>0.2785625703653489</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3331005119217982</v>
+        <v>0.332009437004133</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>121628</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104141</v>
+        <v>103102</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>143285</v>
+        <v>142328</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2224255582503406</v>
+        <v>0.2224255582503405</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1904461405491776</v>
+        <v>0.1885469657567785</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2620310788382226</v>
+        <v>0.2602808998069718</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>155</v>
@@ -2336,19 +2336,19 @@
         <v>92004</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78374</v>
+        <v>80906</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>105233</v>
+        <v>107176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2019486003567502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1720297784743434</v>
+        <v>0.1775882233073495</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.230986801342988</v>
+        <v>0.2352503620534936</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>278</v>
@@ -2357,19 +2357,19 @@
         <v>213632</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>192073</v>
+        <v>189872</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>239071</v>
+        <v>238660</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2131190374605138</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1916115589200544</v>
+        <v>0.1894159749950234</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2384963121089835</v>
+        <v>0.2380868462884815</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>57114</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>43573</v>
+        <v>44012</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>72428</v>
+        <v>72882</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1044456598837788</v>
+        <v>0.1044456598837787</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07968436647302438</v>
+        <v>0.08048623278147732</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1324510271476879</v>
+        <v>0.1332826854478923</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>87</v>
@@ -2407,19 +2407,19 @@
         <v>54998</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>44658</v>
+        <v>45185</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>67097</v>
+        <v>67062</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1207203648550037</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09802359811769733</v>
+        <v>0.09918057101332706</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1472766931665237</v>
+        <v>0.1472011181289937</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>146</v>
@@ -2428,19 +2428,19 @@
         <v>112112</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>95590</v>
+        <v>94953</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>131214</v>
+        <v>133410</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1118423093739069</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09536085646068584</v>
+        <v>0.09472508688498966</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1308992790095627</v>
+        <v>0.1330897158314945</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>91257</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>73013</v>
+        <v>73822</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>109408</v>
+        <v>109347</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1668850671079692</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1335213682730493</v>
+        <v>0.1350004240656354</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2000786895723218</v>
+        <v>0.1999674333814499</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>106</v>
@@ -2478,19 +2478,19 @@
         <v>68570</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57096</v>
+        <v>57733</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81777</v>
+        <v>82233</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1505097009179157</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1253251004132311</v>
+        <v>0.1267246146748839</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1794990107242219</v>
+        <v>0.1805001857050731</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>193</v>
@@ -2499,19 +2499,19 @@
         <v>159827</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>138904</v>
+        <v>139699</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>183602</v>
+        <v>183462</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1594426683551514</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1385703079708112</v>
+        <v>0.1393634492741515</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1831614143614635</v>
+        <v>0.1830207964925033</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>60666</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>45971</v>
+        <v>47240</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>76645</v>
+        <v>76969</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1109423549874574</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0840689769129897</v>
+        <v>0.08638950522528266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.140163852299151</v>
+        <v>0.140756582389791</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -2549,19 +2549,19 @@
         <v>72215</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>60186</v>
+        <v>59559</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>86442</v>
+        <v>84565</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1585121217807134</v>
+        <v>0.1585121217807135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1321086175849097</v>
+        <v>0.1307308779270789</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1897400317396341</v>
+        <v>0.185620153566418</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>158</v>
@@ -2570,19 +2570,19 @@
         <v>132881</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>113284</v>
+        <v>113681</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>151412</v>
+        <v>154234</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1325622179538808</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1130119661584654</v>
+        <v>0.1134083652681622</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1510482546489202</v>
+        <v>0.1538633377979738</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>35500</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>25320</v>
+        <v>24213</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49844</v>
+        <v>49956</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.06492090412558436</v>
+        <v>0.06492090412558435</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04630438084515885</v>
+        <v>0.04427836935995644</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09115142457416212</v>
+        <v>0.09135554469578133</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -2620,19 +2620,19 @@
         <v>43713</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33873</v>
+        <v>35064</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>53928</v>
+        <v>55301</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.09594983480288735</v>
+        <v>0.09594983480288734</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07435187296053876</v>
+        <v>0.07696469798311437</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1183707164402392</v>
+        <v>0.1213862693382033</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>93</v>
@@ -2641,19 +2641,19 @@
         <v>79213</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64117</v>
+        <v>64678</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>96545</v>
+        <v>96041</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07902316433117881</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06396307711239466</v>
+        <v>0.06452225086785963</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09631308933864578</v>
+        <v>0.09581037632402897</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>106200</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>90292</v>
+        <v>90396</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>122336</v>
+        <v>123431</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.322400210616657</v>
+        <v>0.3224002106166569</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2741070024172019</v>
+        <v>0.2744233055214721</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3713865993026945</v>
+        <v>0.374710519659202</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>91</v>
@@ -2766,19 +2766,19 @@
         <v>55051</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>45808</v>
+        <v>45618</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66828</v>
+        <v>64961</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2370884327153727</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1972837686270574</v>
+        <v>0.1964661845559354</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.287811169246129</v>
+        <v>0.2797684776052813</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>202</v>
@@ -2787,19 +2787,19 @@
         <v>161250</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>141252</v>
+        <v>140723</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>181108</v>
+        <v>180861</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2871278046925504</v>
+        <v>0.2871278046925503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2515171529712728</v>
+        <v>0.2505751525960423</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3224860908477182</v>
+        <v>0.3220474712060575</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>62497</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>49961</v>
+        <v>49205</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>77077</v>
+        <v>76486</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1897277032056542</v>
+        <v>0.1897277032056541</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1516721279705744</v>
+        <v>0.1493745644801801</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2339897062798244</v>
+        <v>0.2321949950800519</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>83</v>
@@ -2837,19 +2837,19 @@
         <v>44577</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>35843</v>
+        <v>36780</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>53933</v>
+        <v>54471</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1919817887507253</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.154367775205894</v>
+        <v>0.1584024278932516</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2322774036033649</v>
+        <v>0.2345907930044237</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>153</v>
@@ -2858,19 +2858,19 @@
         <v>107074</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>91171</v>
+        <v>91496</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>124235</v>
+        <v>125062</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1906596615153896</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1623424622907039</v>
+        <v>0.1629200835474129</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2212171391198761</v>
+        <v>0.2226888593843757</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>34669</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>25250</v>
+        <v>25813</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45697</v>
+        <v>46117</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1052482002605899</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07665499139912779</v>
+        <v>0.07836167963155102</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1387259052025759</v>
+        <v>0.1400023248177258</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>49</v>
@@ -2908,19 +2908,19 @@
         <v>28204</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>20993</v>
+        <v>21466</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>37365</v>
+        <v>36016</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1214694171878275</v>
+        <v>0.1214694171878276</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09040943987353202</v>
+        <v>0.09244771770228302</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1609217374372071</v>
+        <v>0.1551124351422707</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>90</v>
@@ -2929,19 +2929,19 @@
         <v>62874</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>50695</v>
+        <v>51196</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>76205</v>
+        <v>75305</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1119549101911059</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09026917728747537</v>
+        <v>0.09116158268626724</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1356928952806485</v>
+        <v>0.1340905946931252</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>56561</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>45110</v>
+        <v>43334</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>71297</v>
+        <v>70801</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1717081952767897</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1369441990518154</v>
+        <v>0.1315529383130913</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2164422311508642</v>
+        <v>0.2149359128262608</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>68</v>
@@ -2979,19 +2979,19 @@
         <v>42574</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>33706</v>
+        <v>34216</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>51721</v>
+        <v>52935</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.18335477827238</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1451616384765081</v>
+        <v>0.147360450589479</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2227504700320991</v>
+        <v>0.2279755022803093</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>128</v>
@@ -3000,19 +3000,19 @@
         <v>99135</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84389</v>
+        <v>84481</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>115623</v>
+        <v>117514</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1765235093301975</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1502659153640205</v>
+        <v>0.1504296637381451</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2058827353067608</v>
+        <v>0.209249292476391</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>47443</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>36302</v>
+        <v>36497</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>59548</v>
+        <v>60526</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1440262408432421</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1102040424812173</v>
+        <v>0.1107978798728555</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1807748658188063</v>
+        <v>0.1837438653983059</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>53</v>
@@ -3050,19 +3050,19 @@
         <v>35035</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>26797</v>
+        <v>27062</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>46051</v>
+        <v>43684</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1508847976574204</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1154098665853959</v>
+        <v>0.1165471725049349</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1983280226927977</v>
+        <v>0.1881366324516048</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>105</v>
@@ -3071,19 +3071,19 @@
         <v>82477</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>68915</v>
+        <v>69343</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>98687</v>
+        <v>101604</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1468619313651671</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1227114431159423</v>
+        <v>0.1234744014298176</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1757246445406576</v>
+        <v>0.1809193585380976</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>22034</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>14153</v>
+        <v>14114</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31997</v>
+        <v>31812</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06688944979706722</v>
+        <v>0.06688944979706719</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04296599765726396</v>
+        <v>0.04284611585856158</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09713610944956136</v>
+        <v>0.0965742664221466</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>43</v>
@@ -3121,19 +3121,19 @@
         <v>26754</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>19876</v>
+        <v>19734</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>34736</v>
+        <v>35448</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1152207854162741</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.08559927343609729</v>
+        <v>0.0849882897946623</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1495996621400823</v>
+        <v>0.1526651410779435</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>66</v>
@@ -3142,19 +3142,19 @@
         <v>48787</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>38346</v>
+        <v>39127</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>60896</v>
+        <v>61854</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.08687218290558951</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.06827953599413358</v>
+        <v>0.06966998107680908</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1084332321570511</v>
+        <v>0.1101399127240678</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>606450</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>561645</v>
+        <v>560380</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>653379</v>
+        <v>651553</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3175130312041977</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2940550105996338</v>
+        <v>0.2933927593868713</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3420831110174232</v>
+        <v>0.341127000943671</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>531</v>
@@ -3267,19 +3267,19 @@
         <v>406937</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>376877</v>
+        <v>376499</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>437763</v>
+        <v>440114</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.272283029168378</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2521696954182829</v>
+        <v>0.2519170639736432</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2929089428843498</v>
+        <v>0.2944822706975972</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1045</v>
@@ -3288,19 +3288,19 @@
         <v>1013387</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>958538</v>
+        <v>957540</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1068839</v>
+        <v>1070936</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2976577985134914</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.281547199346532</v>
+        <v>0.2812542085856528</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3139455832480293</v>
+        <v>0.3145615641957355</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>361726</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>322991</v>
+        <v>325721</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>400504</v>
+        <v>398347</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1893852772970958</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1691053561063905</v>
+        <v>0.1705346759454092</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2096879850839239</v>
+        <v>0.2085587413874085</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>414</v>
@@ -3338,19 +3338,19 @@
         <v>278638</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>252863</v>
+        <v>255329</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>304687</v>
+        <v>307659</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.1864380775563579</v>
+        <v>0.186438077556358</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.169191384552918</v>
+        <v>0.1708415483093092</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2038675484792663</v>
+        <v>0.2058557184602079</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>744</v>
@@ -3359,19 +3359,19 @@
         <v>640364</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>595718</v>
+        <v>590296</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>688652</v>
+        <v>687968</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1880915047124296</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1749777551845835</v>
+        <v>0.1733850459447969</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2022748731286398</v>
+        <v>0.2020739459741042</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>222443</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>193075</v>
+        <v>191212</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>256967</v>
+        <v>253444</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1164620520037814</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1010864594702834</v>
+        <v>0.10011092524408</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1345374758095735</v>
+        <v>0.13269322781865</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>241</v>
@@ -3409,19 +3409,19 @@
         <v>174862</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>151437</v>
+        <v>153191</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>199088</v>
+        <v>195139</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1170007180167255</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1013272677873826</v>
+        <v>0.1025004326893412</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1332107028057213</v>
+        <v>0.130568596437246</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>449</v>
@@ -3430,19 +3430,19 @@
         <v>397304</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>358993</v>
+        <v>360336</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>434915</v>
+        <v>434794</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1166985175918464</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1054453721123104</v>
+        <v>0.1058399975924837</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1277458505605621</v>
+        <v>0.1277101039208378</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>335112</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>299692</v>
+        <v>299671</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>374700</v>
+        <v>374804</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1754511839738317</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1569068814647041</v>
+        <v>0.1568958129592926</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1961778785561098</v>
+        <v>0.1962324832212546</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>317</v>
@@ -3480,19 +3480,19 @@
         <v>241817</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>219342</v>
+        <v>216685</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>269275</v>
+        <v>266051</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1618008831320623</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1467627097215418</v>
+        <v>0.1449844979226646</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1801729251441855</v>
+        <v>0.1780158662120569</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>601</v>
@@ -3501,19 +3501,19 @@
         <v>576929</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>531075</v>
+        <v>534283</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>623529</v>
+        <v>625925</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1694589246921091</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1559905102448006</v>
+        <v>0.1569327762654091</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1831466291835624</v>
+        <v>0.1838502999895055</v>
       </c>
     </row>
     <row r="43">
@@ -3530,19 +3530,19 @@
         <v>264940</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>229129</v>
+        <v>229372</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>301605</v>
+        <v>299716</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1387119278898258</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1199626380961683</v>
+        <v>0.1200898781242957</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1579083609496813</v>
+        <v>0.1569192377981117</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>310</v>
@@ -3551,19 +3551,19 @@
         <v>250767</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>223376</v>
+        <v>226172</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>276796</v>
+        <v>276227</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1677890413015104</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.149461944357455</v>
+        <v>0.1513326382602039</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1852052223680378</v>
+        <v>0.1848247958174711</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>522</v>
@@ -3572,19 +3572,19 @@
         <v>515707</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>470221</v>
+        <v>474038</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>562949</v>
+        <v>566790</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.151476306107316</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1381159484470898</v>
+        <v>0.1392372083270056</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1653526904040362</v>
+        <v>0.1664808896556</v>
       </c>
     </row>
     <row r="44">
@@ -3601,19 +3601,19 @@
         <v>119330</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>97293</v>
+        <v>96986</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>146720</v>
+        <v>144631</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06247652763126765</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05093885019654102</v>
+        <v>0.05077820536445696</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07681647078093132</v>
+        <v>0.07572323089175528</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>186</v>
@@ -3622,19 +3622,19 @@
         <v>141515</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>122674</v>
+        <v>120192</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>163506</v>
+        <v>161651</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09468825082496568</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08208161097477323</v>
+        <v>0.08042112924343876</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1094022383184644</v>
+        <v>0.1081613138223012</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>285</v>
@@ -3643,19 +3643,19 @@
         <v>260845</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>231410</v>
+        <v>230237</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>294803</v>
+        <v>290596</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.07661694838280757</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06797099167367295</v>
+        <v>0.06762661123920403</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.08659127513784222</v>
+        <v>0.08535554540614086</v>
       </c>
     </row>
     <row r="45">
